--- a/z0bug_odoo/z0bug_odoo/data/dichiarazione_intento.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/dichiarazione_intento.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -67,10 +67,10 @@
     <t xml:space="preserve">2021/01</t>
   </si>
   <si>
-    <t xml:space="preserve">-90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-31</t>
+    <t xml:space="preserve">&lt;#-01-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#-12-31</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_6</t>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t xml:space="preserve">out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####-01-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####-12-31</t>
   </si>
 </sst>
 </file>
@@ -189,13 +201,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.1"/>
@@ -285,6 +297,44 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.3" right="0.3" top="0.609722222222222" bottom="0.370138888888889" header="0.1" footer="0.1"/>

--- a/z0bug_odoo/z0bug_odoo/data/dichiarazione_intento.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/dichiarazione_intento.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.li_partner_6</t>
+    <t xml:space="preserve">z0bug.li_partner_6_2021</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -67,10 +67,10 @@
     <t xml:space="preserve">2021/01</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;#-01-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;#-12-31</t>
+    <t xml:space="preserve">&lt;###-01-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;###-12-31</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_6</t>
@@ -82,13 +82,16 @@
     <t xml:space="preserve">out</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.li_partner_6_2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">2022/06</t>
   </si>
   <si>
-    <t xml:space="preserve">####-01-20</t>
+    <t xml:space="preserve">####-01-06</t>
   </si>
   <si>
     <t xml:space="preserve">####-12-31</t>
@@ -204,12 +207,12 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.8"/>
@@ -299,28 +302,28 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>17</v>
